--- a/narmada.xlsx
+++ b/narmada.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10708"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ebt\public\report\narmada\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/upk-elogsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545C2E62-CE70-4C65-A145-C39B2D6DD5E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7A85CF-DC83-DD41-B33D-AF706A0378A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="29040" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t xml:space="preserve">                  PT PLN (Persero) WILAYAH NTB</t>
   </si>
@@ -170,13 +170,16 @@
   </si>
   <si>
     <t>KETUA REGU</t>
+  </si>
+  <si>
+    <t>DEBIT AIR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -203,7 +206,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -678,13 +681,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -814,6 +841,111 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -826,109 +958,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1277,230 +1325,237 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z113"/>
+  <dimension ref="A1:AA113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="17" max="18" width="11.7109375" customWidth="1"/>
-    <col min="19" max="19" width="11.5703125" customWidth="1"/>
-    <col min="20" max="20" width="11.140625" customWidth="1"/>
-    <col min="21" max="21" width="11.28515625" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="14" customWidth="1"/>
-    <col min="24" max="24" width="38.28515625" customWidth="1"/>
-    <col min="25" max="25" width="33.140625" customWidth="1"/>
-    <col min="26" max="26" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
+    <col min="17" max="18" width="11.6640625" customWidth="1"/>
+    <col min="19" max="19" width="11.5" customWidth="1"/>
+    <col min="20" max="20" width="11.1640625" customWidth="1"/>
+    <col min="21" max="22" width="11.33203125" customWidth="1"/>
+    <col min="23" max="23" width="14.33203125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="14" customWidth="1"/>
+    <col min="25" max="25" width="38.33203125" customWidth="1"/>
+    <col min="26" max="26" width="33.1640625" customWidth="1"/>
+    <col min="27" max="27" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15" customHeight="1">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="76" t="s">
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
       <c r="U1" s="19"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="21"/>
-    </row>
-    <row r="2" spans="1:26" ht="15" customHeight="1">
-      <c r="A2" s="45" t="s">
+      <c r="V1" s="84"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="21"/>
+    </row>
+    <row r="2" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
       <c r="U2" s="22"/>
-      <c r="W2" s="23"/>
-    </row>
-    <row r="3" spans="1:26" ht="15" customHeight="1">
+      <c r="V2" s="85"/>
+      <c r="X2" s="23"/>
+    </row>
+    <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="81"/>
-      <c r="T3" s="81"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
       <c r="U3" s="2"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="25"/>
-    </row>
-    <row r="4" spans="1:26" ht="15" customHeight="1"/>
-    <row r="5" spans="1:26" ht="15" customHeight="1">
+      <c r="V3" s="3"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="25"/>
+    </row>
+    <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="15" customHeight="1">
+    <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="15" customHeight="1">
+    <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="15" customHeight="1">
+    <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="15" customHeight="1"/>
-    <row r="10" spans="1:26" ht="21.95" customHeight="1">
+    <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:27" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:26" ht="18" customHeight="1">
-      <c r="A11" s="58" t="s">
+    <row r="11" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="49"/>
-      <c r="U11" s="47" t="s">
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="82"/>
+      <c r="R11" s="82"/>
+      <c r="S11" s="82"/>
+      <c r="T11" s="83"/>
+      <c r="U11" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="V11" s="47" t="s">
+      <c r="V11" s="86" t="s">
+        <v>50</v>
+      </c>
+      <c r="W11" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="W11" s="67" t="s">
+      <c r="X11" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="X11" s="69" t="s">
+      <c r="Y11" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="Y11" s="72" t="s">
+      <c r="Z11" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="Z11" s="67" t="s">
+      <c r="AA11" s="45" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="18" customHeight="1">
-      <c r="A12" s="59"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="50" t="s">
+    <row r="12" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="67"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50" t="s">
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50" t="s">
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="50" t="s">
+      <c r="K12" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="50" t="s">
+      <c r="L12" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="M12" s="50" t="s">
+      <c r="M12" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50" t="s">
+      <c r="N12" s="72"/>
+      <c r="O12" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="50" t="s">
+      <c r="P12" s="72"/>
+      <c r="Q12" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="R12" s="50"/>
-      <c r="S12" s="50"/>
-      <c r="T12" s="50"/>
-      <c r="U12" s="65"/>
-      <c r="V12" s="65"/>
-      <c r="W12" s="68"/>
-      <c r="X12" s="70"/>
-      <c r="Y12" s="73"/>
-      <c r="Z12" s="68"/>
-    </row>
-    <row r="13" spans="1:26" ht="18" customHeight="1">
-      <c r="A13" s="60"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
+      <c r="R12" s="72"/>
+      <c r="S12" s="72"/>
+      <c r="T12" s="72"/>
+      <c r="U12" s="55"/>
+      <c r="V12" s="87"/>
+      <c r="W12" s="55"/>
+      <c r="X12" s="46"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="61"/>
+      <c r="AA12" s="46"/>
+    </row>
+    <row r="13" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="68"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
       <c r="D13" s="8" t="s">
         <v>26</v>
       </c>
@@ -1519,9 +1574,9 @@
       <c r="I13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
       <c r="M13" s="8" t="s">
         <v>32</v>
       </c>
@@ -1546,14 +1601,15 @@
       <c r="T13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="U13" s="66"/>
-      <c r="V13" s="65"/>
-      <c r="W13" s="68"/>
-      <c r="X13" s="70"/>
-      <c r="Y13" s="73"/>
-      <c r="Z13" s="68"/>
-    </row>
-    <row r="14" spans="1:26" ht="18" customHeight="1">
+      <c r="U13" s="56"/>
+      <c r="V13" s="88"/>
+      <c r="W13" s="55"/>
+      <c r="X13" s="46"/>
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="61"/>
+      <c r="AA13" s="46"/>
+    </row>
+    <row r="14" spans="1:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="10" t="s">
         <v>40</v>
@@ -1561,16 +1617,16 @@
       <c r="C14" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="51" t="s">
+      <c r="D14" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51" t="s">
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
       <c r="J14" s="10" t="s">
         <v>44</v>
       </c>
@@ -1584,26 +1640,27 @@
       <c r="N14" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="O14" s="51" t="s">
+      <c r="O14" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51" t="s">
+      <c r="P14" s="74"/>
+      <c r="Q14" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="R14" s="51"/>
-      <c r="S14" s="51"/>
-      <c r="T14" s="51"/>
+      <c r="R14" s="74"/>
+      <c r="S14" s="74"/>
+      <c r="T14" s="74"/>
       <c r="U14" s="28"/>
-      <c r="V14" s="29" t="s">
+      <c r="V14" s="28"/>
+      <c r="W14" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="W14" s="30"/>
-      <c r="X14" s="71"/>
-      <c r="Y14" s="74"/>
-      <c r="Z14" s="75"/>
-    </row>
-    <row r="15" spans="1:26" ht="18" customHeight="1">
+      <c r="X14" s="30"/>
+      <c r="Y14" s="59"/>
+      <c r="Z14" s="62"/>
+      <c r="AA14" s="47"/>
+    </row>
+    <row r="15" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -1626,12 +1683,13 @@
       <c r="T15" s="12"/>
       <c r="U15" s="31"/>
       <c r="V15" s="31"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="32"/>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="38"/>
-    </row>
-    <row r="16" spans="1:26" ht="18" customHeight="1">
+      <c r="W15" s="31"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="37"/>
+      <c r="AA15" s="38"/>
+    </row>
+    <row r="16" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -1653,13 +1711,14 @@
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
       <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="33"/>
-      <c r="Y16" s="39"/>
-      <c r="Z16" s="40"/>
-    </row>
-    <row r="17" spans="1:26" ht="18" customHeight="1">
+      <c r="V16" s="43"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="33"/>
+      <c r="Z16" s="39"/>
+      <c r="AA16" s="40"/>
+    </row>
+    <row r="17" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -1681,13 +1740,14 @@
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
       <c r="U17" s="26"/>
-      <c r="V17" s="26"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="33"/>
-      <c r="Y17" s="39"/>
-      <c r="Z17" s="40"/>
-    </row>
-    <row r="18" spans="1:26" ht="18" customHeight="1">
+      <c r="V17" s="43"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="33"/>
+      <c r="Z17" s="39"/>
+      <c r="AA17" s="40"/>
+    </row>
+    <row r="18" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -1709,13 +1769,14 @@
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
       <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="33"/>
-      <c r="Y18" s="39"/>
-      <c r="Z18" s="40"/>
-    </row>
-    <row r="19" spans="1:26" ht="18" customHeight="1">
+      <c r="V18" s="43"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="33"/>
+      <c r="Z18" s="39"/>
+      <c r="AA18" s="40"/>
+    </row>
+    <row r="19" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1737,13 +1798,14 @@
       <c r="S19" s="6"/>
       <c r="T19" s="6"/>
       <c r="U19" s="26"/>
-      <c r="V19" s="26"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="33"/>
-      <c r="Y19" s="39"/>
-      <c r="Z19" s="40"/>
-    </row>
-    <row r="20" spans="1:26" ht="18" customHeight="1">
+      <c r="V19" s="43"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="33"/>
+      <c r="Z19" s="39"/>
+      <c r="AA19" s="40"/>
+    </row>
+    <row r="20" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -1765,13 +1827,14 @@
       <c r="S20" s="6"/>
       <c r="T20" s="6"/>
       <c r="U20" s="26"/>
-      <c r="V20" s="26"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="33"/>
-      <c r="Y20" s="39"/>
-      <c r="Z20" s="40"/>
-    </row>
-    <row r="21" spans="1:26" ht="18" customHeight="1">
+      <c r="V20" s="43"/>
+      <c r="W20" s="26"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="33"/>
+      <c r="Z20" s="39"/>
+      <c r="AA20" s="40"/>
+    </row>
+    <row r="21" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1793,13 +1856,14 @@
       <c r="S21" s="6"/>
       <c r="T21" s="6"/>
       <c r="U21" s="26"/>
-      <c r="V21" s="26"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="33"/>
-      <c r="Y21" s="39"/>
-      <c r="Z21" s="40"/>
-    </row>
-    <row r="22" spans="1:26" ht="18" customHeight="1">
+      <c r="V21" s="43"/>
+      <c r="W21" s="26"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="33"/>
+      <c r="Z21" s="39"/>
+      <c r="AA21" s="40"/>
+    </row>
+    <row r="22" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -1821,13 +1885,14 @@
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
       <c r="U22" s="26"/>
-      <c r="V22" s="26"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="33"/>
-      <c r="Y22" s="39"/>
-      <c r="Z22" s="40"/>
-    </row>
-    <row r="23" spans="1:26" ht="18" customHeight="1">
+      <c r="V22" s="43"/>
+      <c r="W22" s="26"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="33"/>
+      <c r="Z22" s="39"/>
+      <c r="AA22" s="40"/>
+    </row>
+    <row r="23" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -1849,13 +1914,14 @@
       <c r="S23" s="6"/>
       <c r="T23" s="6"/>
       <c r="U23" s="26"/>
-      <c r="V23" s="26"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="33"/>
-      <c r="Y23" s="39"/>
-      <c r="Z23" s="40"/>
-    </row>
-    <row r="24" spans="1:26" ht="18" customHeight="1">
+      <c r="V23" s="43"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="33"/>
+      <c r="Z23" s="39"/>
+      <c r="AA23" s="40"/>
+    </row>
+    <row r="24" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -1877,13 +1943,14 @@
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
       <c r="U24" s="26"/>
-      <c r="V24" s="26"/>
-      <c r="W24" s="6"/>
-      <c r="X24" s="33"/>
-      <c r="Y24" s="39"/>
-      <c r="Z24" s="40"/>
-    </row>
-    <row r="25" spans="1:26" ht="18" customHeight="1">
+      <c r="V24" s="43"/>
+      <c r="W24" s="26"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="33"/>
+      <c r="Z24" s="39"/>
+      <c r="AA24" s="40"/>
+    </row>
+    <row r="25" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -1905,13 +1972,14 @@
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
       <c r="U25" s="26"/>
-      <c r="V25" s="26"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="33"/>
-      <c r="Y25" s="39"/>
-      <c r="Z25" s="40"/>
-    </row>
-    <row r="26" spans="1:26" ht="18" customHeight="1">
+      <c r="V25" s="43"/>
+      <c r="W25" s="26"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="33"/>
+      <c r="Z25" s="39"/>
+      <c r="AA25" s="40"/>
+    </row>
+    <row r="26" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -1933,13 +2001,14 @@
       <c r="S26" s="6"/>
       <c r="T26" s="6"/>
       <c r="U26" s="26"/>
-      <c r="V26" s="26"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="39"/>
-      <c r="Z26" s="40"/>
-    </row>
-    <row r="27" spans="1:26" ht="18" customHeight="1">
+      <c r="V26" s="43"/>
+      <c r="W26" s="26"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="33"/>
+      <c r="Z26" s="39"/>
+      <c r="AA26" s="40"/>
+    </row>
+    <row r="27" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1961,13 +2030,14 @@
       <c r="S27" s="6"/>
       <c r="T27" s="6"/>
       <c r="U27" s="26"/>
-      <c r="V27" s="26"/>
-      <c r="W27" s="6"/>
-      <c r="X27" s="33"/>
-      <c r="Y27" s="39"/>
-      <c r="Z27" s="40"/>
-    </row>
-    <row r="28" spans="1:26" ht="18" customHeight="1">
+      <c r="V27" s="43"/>
+      <c r="W27" s="26"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="33"/>
+      <c r="Z27" s="39"/>
+      <c r="AA27" s="40"/>
+    </row>
+    <row r="28" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -1989,13 +2059,14 @@
       <c r="S28" s="6"/>
       <c r="T28" s="6"/>
       <c r="U28" s="26"/>
-      <c r="V28" s="26"/>
-      <c r="W28" s="6"/>
-      <c r="X28" s="33"/>
-      <c r="Y28" s="39"/>
-      <c r="Z28" s="40"/>
-    </row>
-    <row r="29" spans="1:26" ht="18" customHeight="1">
+      <c r="V28" s="43"/>
+      <c r="W28" s="26"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="33"/>
+      <c r="Z28" s="39"/>
+      <c r="AA28" s="40"/>
+    </row>
+    <row r="29" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -2017,13 +2088,14 @@
       <c r="S29" s="6"/>
       <c r="T29" s="6"/>
       <c r="U29" s="26"/>
-      <c r="V29" s="26"/>
-      <c r="W29" s="6"/>
-      <c r="X29" s="33"/>
-      <c r="Y29" s="39"/>
-      <c r="Z29" s="40"/>
-    </row>
-    <row r="30" spans="1:26" ht="18" customHeight="1">
+      <c r="V29" s="43"/>
+      <c r="W29" s="26"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="33"/>
+      <c r="Z29" s="39"/>
+      <c r="AA29" s="40"/>
+    </row>
+    <row r="30" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -2045,13 +2117,14 @@
       <c r="S30" s="6"/>
       <c r="T30" s="6"/>
       <c r="U30" s="26"/>
-      <c r="V30" s="26"/>
-      <c r="W30" s="6"/>
-      <c r="X30" s="33"/>
-      <c r="Y30" s="39"/>
-      <c r="Z30" s="40"/>
-    </row>
-    <row r="31" spans="1:26" ht="18" customHeight="1">
+      <c r="V30" s="43"/>
+      <c r="W30" s="26"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="33"/>
+      <c r="Z30" s="39"/>
+      <c r="AA30" s="40"/>
+    </row>
+    <row r="31" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -2073,13 +2146,14 @@
       <c r="S31" s="6"/>
       <c r="T31" s="6"/>
       <c r="U31" s="26"/>
-      <c r="V31" s="26"/>
-      <c r="W31" s="6"/>
-      <c r="X31" s="33"/>
-      <c r="Y31" s="39"/>
-      <c r="Z31" s="40"/>
-    </row>
-    <row r="32" spans="1:26" ht="18" customHeight="1">
+      <c r="V31" s="43"/>
+      <c r="W31" s="26"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="33"/>
+      <c r="Z31" s="39"/>
+      <c r="AA31" s="40"/>
+    </row>
+    <row r="32" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -2101,13 +2175,14 @@
       <c r="S32" s="6"/>
       <c r="T32" s="6"/>
       <c r="U32" s="26"/>
-      <c r="V32" s="26"/>
-      <c r="W32" s="6"/>
-      <c r="X32" s="33"/>
-      <c r="Y32" s="39"/>
-      <c r="Z32" s="40"/>
-    </row>
-    <row r="33" spans="1:26" ht="18" customHeight="1">
+      <c r="V32" s="43"/>
+      <c r="W32" s="26"/>
+      <c r="X32" s="6"/>
+      <c r="Y32" s="33"/>
+      <c r="Z32" s="39"/>
+      <c r="AA32" s="40"/>
+    </row>
+    <row r="33" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -2129,13 +2204,14 @@
       <c r="S33" s="6"/>
       <c r="T33" s="6"/>
       <c r="U33" s="26"/>
-      <c r="V33" s="26"/>
-      <c r="W33" s="6"/>
-      <c r="X33" s="33"/>
-      <c r="Y33" s="39"/>
-      <c r="Z33" s="40"/>
-    </row>
-    <row r="34" spans="1:26" ht="18" customHeight="1">
+      <c r="V33" s="43"/>
+      <c r="W33" s="26"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="33"/>
+      <c r="Z33" s="39"/>
+      <c r="AA33" s="40"/>
+    </row>
+    <row r="34" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -2157,13 +2233,14 @@
       <c r="S34" s="6"/>
       <c r="T34" s="6"/>
       <c r="U34" s="26"/>
-      <c r="V34" s="26"/>
-      <c r="W34" s="6"/>
-      <c r="X34" s="33"/>
-      <c r="Y34" s="39"/>
-      <c r="Z34" s="40"/>
-    </row>
-    <row r="35" spans="1:26" ht="18" customHeight="1">
+      <c r="V34" s="43"/>
+      <c r="W34" s="26"/>
+      <c r="X34" s="6"/>
+      <c r="Y34" s="33"/>
+      <c r="Z34" s="39"/>
+      <c r="AA34" s="40"/>
+    </row>
+    <row r="35" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -2185,13 +2262,14 @@
       <c r="S35" s="6"/>
       <c r="T35" s="6"/>
       <c r="U35" s="26"/>
-      <c r="V35" s="26"/>
-      <c r="W35" s="6"/>
-      <c r="X35" s="33"/>
-      <c r="Y35" s="39"/>
-      <c r="Z35" s="40"/>
-    </row>
-    <row r="36" spans="1:26" ht="18" customHeight="1">
+      <c r="V35" s="43"/>
+      <c r="W35" s="26"/>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="33"/>
+      <c r="Z35" s="39"/>
+      <c r="AA35" s="40"/>
+    </row>
+    <row r="36" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -2213,13 +2291,14 @@
       <c r="S36" s="6"/>
       <c r="T36" s="6"/>
       <c r="U36" s="26"/>
-      <c r="V36" s="26"/>
-      <c r="W36" s="6"/>
-      <c r="X36" s="33"/>
-      <c r="Y36" s="39"/>
-      <c r="Z36" s="40"/>
-    </row>
-    <row r="37" spans="1:26" ht="18" customHeight="1">
+      <c r="V36" s="43"/>
+      <c r="W36" s="26"/>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="33"/>
+      <c r="Z36" s="39"/>
+      <c r="AA36" s="40"/>
+    </row>
+    <row r="37" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -2241,13 +2320,14 @@
       <c r="S37" s="6"/>
       <c r="T37" s="6"/>
       <c r="U37" s="26"/>
-      <c r="V37" s="26"/>
-      <c r="W37" s="6"/>
-      <c r="X37" s="33"/>
-      <c r="Y37" s="39"/>
-      <c r="Z37" s="40"/>
-    </row>
-    <row r="38" spans="1:26" ht="18" customHeight="1">
+      <c r="V37" s="43"/>
+      <c r="W37" s="26"/>
+      <c r="X37" s="6"/>
+      <c r="Y37" s="33"/>
+      <c r="Z37" s="39"/>
+      <c r="AA37" s="40"/>
+    </row>
+    <row r="38" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="5"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -2269,13 +2349,14 @@
       <c r="S38" s="6"/>
       <c r="T38" s="6"/>
       <c r="U38" s="26"/>
-      <c r="V38" s="26"/>
-      <c r="W38" s="6"/>
-      <c r="X38" s="33"/>
-      <c r="Y38" s="39"/>
-      <c r="Z38" s="40"/>
-    </row>
-    <row r="39" spans="1:26" ht="18" customHeight="1">
+      <c r="V38" s="43"/>
+      <c r="W38" s="26"/>
+      <c r="X38" s="6"/>
+      <c r="Y38" s="33"/>
+      <c r="Z38" s="39"/>
+      <c r="AA38" s="40"/>
+    </row>
+    <row r="39" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="7"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -2297,13 +2378,14 @@
       <c r="S39" s="8"/>
       <c r="T39" s="8"/>
       <c r="U39" s="27"/>
-      <c r="V39" s="26"/>
-      <c r="W39" s="6"/>
-      <c r="X39" s="34"/>
-      <c r="Y39" s="41"/>
-      <c r="Z39" s="42"/>
-    </row>
-    <row r="40" spans="1:26" ht="15" customHeight="1">
+      <c r="V39" s="44"/>
+      <c r="W39" s="26"/>
+      <c r="X39" s="6"/>
+      <c r="Y39" s="34"/>
+      <c r="Z39" s="41"/>
+      <c r="AA39" s="42"/>
+    </row>
+    <row r="40" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="13"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
@@ -2325,13 +2407,14 @@
       <c r="S40" s="13"/>
       <c r="T40" s="13"/>
       <c r="U40" s="35"/>
-      <c r="V40" s="26"/>
-      <c r="W40" s="6"/>
-      <c r="X40" s="36"/>
-      <c r="Y40" s="40"/>
+      <c r="V40" s="35"/>
+      <c r="W40" s="26"/>
+      <c r="X40" s="6"/>
+      <c r="Y40" s="36"/>
       <c r="Z40" s="40"/>
-    </row>
-    <row r="41" spans="1:26" ht="15" customHeight="1">
+      <c r="AA40" s="40"/>
+    </row>
+    <row r="41" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="13"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
@@ -2353,21 +2436,22 @@
       <c r="S41" s="13"/>
       <c r="T41" s="13"/>
       <c r="U41" s="35"/>
-      <c r="V41" s="26"/>
-      <c r="W41" s="6"/>
-      <c r="X41" s="36"/>
-      <c r="Y41" s="40"/>
+      <c r="V41" s="35"/>
+      <c r="W41" s="26"/>
+      <c r="X41" s="6"/>
+      <c r="Y41" s="36"/>
       <c r="Z41" s="40"/>
-    </row>
-    <row r="42" spans="1:26" ht="15" customHeight="1"/>
-    <row r="43" spans="1:26" ht="15" customHeight="1">
-      <c r="B43" s="52" t="s">
+      <c r="AA41" s="40"/>
+    </row>
+    <row r="42" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="54"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="77"/>
       <c r="I43" s="17"/>
       <c r="J43" s="17"/>
       <c r="K43" s="17"/>
@@ -2379,25 +2463,25 @@
       <c r="S43" s="17"/>
       <c r="T43" s="17"/>
     </row>
-    <row r="44" spans="1:26" ht="15" customHeight="1">
+    <row r="44" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="14"/>
       <c r="F44" s="16"/>
     </row>
-    <row r="45" spans="1:26" ht="15" customHeight="1">
+    <row r="45" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="14"/>
       <c r="F45" s="16"/>
     </row>
-    <row r="46" spans="1:26" ht="15" customHeight="1">
+    <row r="46" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="14"/>
       <c r="F46" s="16"/>
     </row>
-    <row r="47" spans="1:26" ht="23.1" customHeight="1">
+    <row r="47" spans="1:27" ht="23" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="15"/>
-      <c r="B47" s="55"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="56"/>
-      <c r="F47" s="57"/>
+      <c r="B47" s="63"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="64"/>
+      <c r="F47" s="65"/>
       <c r="G47" s="17"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
@@ -2410,91 +2494,74 @@
       <c r="S47" s="4"/>
       <c r="T47" s="4"/>
     </row>
-    <row r="48" spans="1:26" ht="15" customHeight="1"/>
-    <row r="49" ht="15" customHeight="1"/>
-    <row r="50" ht="15" customHeight="1"/>
-    <row r="51" ht="15" customHeight="1"/>
-    <row r="52" ht="15" customHeight="1"/>
-    <row r="53" ht="15" customHeight="1"/>
-    <row r="54" ht="15" customHeight="1"/>
-    <row r="55" ht="15" customHeight="1"/>
-    <row r="56" ht="15" customHeight="1"/>
-    <row r="57" ht="15" customHeight="1"/>
-    <row r="58" ht="15" customHeight="1"/>
-    <row r="59" ht="15" customHeight="1"/>
-    <row r="60" ht="15" customHeight="1"/>
-    <row r="61" ht="15" customHeight="1"/>
-    <row r="62" ht="15" customHeight="1"/>
-    <row r="63" ht="15" customHeight="1"/>
-    <row r="64" ht="15" customHeight="1"/>
-    <row r="65" ht="15" customHeight="1"/>
-    <row r="66" ht="15" customHeight="1"/>
-    <row r="67" ht="15" customHeight="1"/>
-    <row r="68" ht="15" customHeight="1"/>
-    <row r="69" ht="15" customHeight="1"/>
-    <row r="70" ht="15" customHeight="1"/>
-    <row r="71" ht="15" customHeight="1"/>
-    <row r="72" ht="15" customHeight="1"/>
-    <row r="73" ht="15" customHeight="1"/>
-    <row r="74" ht="15" customHeight="1"/>
-    <row r="75" ht="15" customHeight="1"/>
-    <row r="76" ht="15" customHeight="1"/>
-    <row r="77" ht="15" customHeight="1"/>
-    <row r="78" ht="15" customHeight="1"/>
-    <row r="79" ht="15" customHeight="1"/>
-    <row r="80" ht="15" customHeight="1"/>
-    <row r="81" ht="15" customHeight="1"/>
-    <row r="82" ht="15" customHeight="1"/>
-    <row r="83" ht="15" customHeight="1"/>
-    <row r="84" ht="15" customHeight="1"/>
-    <row r="85" ht="15" customHeight="1"/>
-    <row r="86" ht="15" customHeight="1"/>
-    <row r="87" ht="15" customHeight="1"/>
-    <row r="88" ht="15" customHeight="1"/>
-    <row r="89" ht="15" customHeight="1"/>
-    <row r="90" ht="15" customHeight="1"/>
-    <row r="91" ht="15" customHeight="1"/>
-    <row r="92" ht="15" customHeight="1"/>
-    <row r="93" ht="15" customHeight="1"/>
-    <row r="94" ht="15" customHeight="1"/>
-    <row r="95" ht="15" customHeight="1"/>
-    <row r="96" ht="15" customHeight="1"/>
-    <row r="97" ht="15" customHeight="1"/>
-    <row r="98" ht="15" customHeight="1"/>
-    <row r="99" ht="15" customHeight="1"/>
-    <row r="100" ht="15" customHeight="1"/>
-    <row r="101" ht="15" customHeight="1"/>
-    <row r="102" ht="15" customHeight="1"/>
-    <row r="103" ht="15" customHeight="1"/>
-    <row r="104" ht="15" customHeight="1"/>
-    <row r="105" ht="15" customHeight="1"/>
-    <row r="106" ht="15" customHeight="1"/>
-    <row r="107" ht="15" customHeight="1"/>
-    <row r="108" ht="15" customHeight="1"/>
-    <row r="109" ht="15" customHeight="1"/>
-    <row r="110" ht="15" customHeight="1"/>
-    <row r="111" ht="15" customHeight="1"/>
-    <row r="112" ht="15" customHeight="1"/>
-    <row r="113" ht="15" customHeight="1"/>
+    <row r="48" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="Z11:Z14"/>
-    <mergeCell ref="F1:T3"/>
-    <mergeCell ref="U11:U13"/>
-    <mergeCell ref="V11:V13"/>
-    <mergeCell ref="W11:W13"/>
-    <mergeCell ref="X11:X14"/>
-    <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="B43:F43"/>
+  <mergeCells count="28">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="D11:T11"/>
@@ -2505,6 +2572,24 @@
     <mergeCell ref="Q12:T12"/>
     <mergeCell ref="K12:K13"/>
     <mergeCell ref="L12:L13"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="AA11:AA14"/>
+    <mergeCell ref="F1:T3"/>
+    <mergeCell ref="U11:U13"/>
+    <mergeCell ref="W11:W13"/>
+    <mergeCell ref="X11:X13"/>
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="Z11:Z14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="V11:V13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
